--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2200.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2200.xlsx
@@ -354,7 +354,7 @@
         <v>1.718779427412862</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.767288295080869</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2200.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2200.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.034516951084483</v>
+        <v>0.840815544128418</v>
       </c>
       <c r="B1">
-        <v>1.718779427412862</v>
+        <v>1.498015880584717</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.170209884643555</v>
       </c>
       <c r="D1">
-        <v>1.767288295080869</v>
+        <v>2.968657970428467</v>
       </c>
       <c r="E1">
-        <v>1.033049348896414</v>
+        <v>1.612660765647888</v>
       </c>
     </row>
   </sheetData>
